--- a/必要备忘.xlsx
+++ b/必要备忘.xlsx
@@ -2763,6 +2763,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2796,14 +2799,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3186,32 +3186,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3223,10 +3223,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3236,10 +3236,10 @@
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -3251,7 +3251,7 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
@@ -3281,10 +3281,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
@@ -3297,10 +3297,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
@@ -3313,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="9" t="s">
         <v>30</v>
       </c>
@@ -3332,8 +3332,8 @@
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
@@ -3346,19 +3346,19 @@
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="8"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
@@ -3376,10 +3376,10 @@
       <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3453,12 +3453,12 @@
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -3516,20 +3516,20 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="31"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="12" t="s">
@@ -3585,20 +3585,20 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="31"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="31"/>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="12" t="s">
@@ -3691,41 +3691,41 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="33"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="33"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="32"/>
+      <c r="B60" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="33"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="12" t="s">
         <v>100</v>
       </c>
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="B64" s="31"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="12" t="s">
@@ -3774,7 +3774,7 @@
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="31"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="12" t="s">
@@ -3817,7 +3817,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="B81" s="31"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="12" t="s">
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="20" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4004,11 +4004,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">

--- a/必要备忘.xlsx
+++ b/必要备忘.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitclone\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B622D137-C755-4945-A84F-D5928AFDC856}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="智能学堂接口" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="打包编译" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="162">
   <si>
     <t>第一个接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2558,12 +2564,1635 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> React, { Component } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'react'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> { AppRegistry, StyleSheet, Text, View } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'react-native'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LotsOfStyles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;View&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{styles.red}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>just red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/Text&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{styles.bigblue}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>just bigblue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/Text&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{[styles.bigblue,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>styles.red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bigblue, then red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/Text&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{[styles.red,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>styles.bigblue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>red, then bigblue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/Text&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/View&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> styles = StyleSheet.create({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bigblue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'blue'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fontWeight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'bold'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fontSize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 30,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'red'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>AppRegistry.registerComponent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'LotsOfStyles'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, () =&gt; LotsOfStyles);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>常见的做法是按顺序声明和使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>属性，以借鉴CSS中的“层叠”做法（即后声明的属性会覆盖先声明的同名属性）。</t>
+    </r>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AppRegistry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> } from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'react</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-native';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FixedDimensionsBasics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{width: 50, height: 50, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'powderblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{width: 100, height: 100, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'skyblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{width: 150, height: 150, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'steelblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>// 注册应用(registerComponent)后才能正确渲染</t>
+  </si>
+  <si>
+    <t>// 注意：只把应用作为一个整体注册一次，而不是每个组件/模块都注册</t>
+  </si>
+  <si>
+    <r>
+      <t>AppRegistry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.registerComponent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'AwesomeProjec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">t', () =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FixedDimensionsBasics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最简单的给组件设定尺寸的方式就是在样式中指定固定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。React Native中的尺寸都是无单位的，表示的是与设备像素密度无关的逻辑像素点。</t>
+    </r>
+  </si>
+  <si>
+    <t>指定宽高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性（Flex）宽高</t>
+  </si>
+  <si>
+    <r>
+      <t>在组件样式中使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>可以使其在可利用的空间中动态地扩张或收缩。一般而言我们会使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flex:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>来指定某个组件扩张以撑满所有剩余的空间。如果有多个并列的子组件使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flex:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，则这些子组件会平分父容器中剩余的空间。如果这些并列的子组件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>值不一样，则谁的值更大，谁占据剩余空间的比例就更大（即占据剩余空间的比等于并列组件间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>值的比）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FlexDimensionsBasics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 试试去掉父View中的`flex: 1`。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 则父View不再具有尺寸，因此子组件也无法再撑开。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 然后再用`height: 300`来代替父View的`flex: 1`试试看？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{flex: 1}}&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{flex: 1, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'powderblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{flex: 2, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'skyblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{flex: 3, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'steelblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AppRegistry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.registerComponent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'AwesomeProjec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">t', () =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FlexDimensionsBasics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2635,8 +4264,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF484848"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2703,6 +4350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2738,7 +4391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2805,6 +4458,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2812,86 +4496,26 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2926,7 +4550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2958,9 +4582,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2992,6 +4634,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3167,14 +4827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -3185,7 +4845,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +4856,7 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -3207,7 +4867,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
@@ -3222,7 +4882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -3241,7 +4901,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3255,7 +4915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -3267,7 +4927,7 @@
       </c>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -3286,7 +4946,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -3302,7 +4962,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +4981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -3335,7 +4995,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
@@ -3351,7 +5011,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="D12" s="1"/>
       <c r="F12" s="22"/>
@@ -3360,16 +5020,16 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
@@ -3405,20 +5065,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
@@ -3426,12 +5086,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -3439,36 +5099,36 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.21</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -3476,7 +5136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -3484,7 +5144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3492,22 +5152,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3515,7 +5175,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
@@ -3523,30 +5183,30 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -3554,153 +5214,153 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
         <v>117</v>
       </c>
@@ -3708,189 +5368,537 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
       <c r="B60" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="32"/>
       <c r="B61" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B87" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B89" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B90" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B92" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="35"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="37"/>
+      <c r="B99" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="37"/>
+      <c r="B100" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="35"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="35"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="41"/>
+      <c r="B128" s="35"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="41"/>
+      <c r="B129" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="41"/>
+      <c r="B130" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="44"/>
+      <c r="B146" s="35"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="44"/>
+      <c r="B147" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="44"/>
+      <c r="B148" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="44"/>
+      <c r="B149" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="44"/>
+      <c r="B150" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="44"/>
+      <c r="B151" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="44"/>
+      <c r="B152" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="44"/>
+      <c r="B153" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="44"/>
+      <c r="B154" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="44"/>
+      <c r="B155" s="36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B156" s="36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B158" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="35"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A145:A155"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A58" r:id="rId1" display="http://redux.js.org/index.html"/>
+    <hyperlink ref="A58" r:id="rId1" display="http://redux.js.org/index.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3898,21 +5906,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -3925,26 +5933,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="65.125" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3952,22 +5960,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -3975,7 +5983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -3988,14 +5996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="66.5" customWidth="1"/>
@@ -4003,14 +6011,14 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -4018,33 +6026,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f ca="1">TODAY()</f>
-        <v>43244</v>
+        <v>43245</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>43244</v>
       </c>
@@ -4058,7 +6066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -4069,5 +6077,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/必要备忘.xlsx
+++ b/必要备忘.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitclone\document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B622D137-C755-4945-A84F-D5928AFDC856}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="智能学堂接口" sheetId="1" r:id="rId1"/>
     <sheet name="RN" sheetId="2" r:id="rId2"/>
     <sheet name="智能阅读馆" sheetId="3" r:id="rId3"/>
     <sheet name="打包编译" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="智能学堂问题" sheetId="5" r:id="rId5"/>
+    <sheet name="支付模块" sheetId="6" r:id="rId6"/>
+    <sheet name="园所版app" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
   <si>
     <t>第一个接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4187,12 +4183,668 @@
       <t>);</t>
     </r>
   </si>
+  <si>
+    <t>支付宝支付：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sdk</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景介绍</t>
+  </si>
+  <si>
+    <t>适用于商家在App应用中集成支付宝支付功能。</t>
+  </si>
+  <si>
+    <t>商家APP调用支付宝提供的SDK，SDK再调用支付宝APP内的支付模块。如果用户已安装支付宝APP，商家APP会跳转到支付宝中完成支付，支付完后跳回到商家APP内，最后展示支付结果。如果用户没有安装支付宝APP，商家APP内会调起支付宝网页支付收银台，用户登录支付宝账户，支付完后展示支付结果。</t>
+  </si>
+  <si>
+    <t>支付宝收银台界面规范</t>
+  </si>
+  <si>
+    <t>列表首位+默认勾选+Logo+推荐标签+标语，最低标准为“Logo+支付宝”，并将作为审核依据。</t>
+  </si>
+  <si>
+    <t>案例及规范</t>
+  </si>
+  <si>
+    <t>计费模式</t>
+  </si>
+  <si>
+    <t>费率按单笔计算；</t>
+  </si>
+  <si>
+    <t>一般行业费率：0.6%；自2018年5月9日起，特殊行业新签约费率从1.2%调整为1%，特殊行业范围包括：休闲游戏；网络游戏点卡、渠道代理；游戏系统商；网游周边服务、交易平台； 网游运营商（含网页游戏）。</t>
+  </si>
+  <si>
+    <t>ComPayActivity</t>
+  </si>
+  <si>
+    <t>支付页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目中涉及的支付类和jar：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipaySdk-20160825</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sdk</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appteacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开发完成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时，无失败返回，关闭提示弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderQuerenActivity</t>
+  </si>
+  <si>
+    <t>订单确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有安装微信是调用不了微信支付的。也没有提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能有一个父容器？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexbox布局</t>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flexDirection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>alignItems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>justifyContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>三个样式属性就已经能满足大多数布局需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>Flex Direction</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FlexDirectionBasics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 尝试把`flexDirection`改为`column`看看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{flex: 1, flexDirection: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>w'}}&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{width: 50, height: 50, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'skyblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> style={{width: 50, height: 50, backgroundColor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'steelblu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e'}} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AppRegistry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.registerComponent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'AwesomeProjec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">t', () =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FlexDirectionBasics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Justify Content</t>
+  </si>
+  <si>
+    <r>
+      <t>在组件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>flexDirection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>可以决定布局的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>主轴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。子元素是应该沿着</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>水平轴(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>方向排列，还是沿着</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>竖直轴(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>方向排列呢？默认值是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>竖直轴(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF484848"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>方向。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4282,8 +4934,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF484848"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4356,6 +5029,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4391,7 +5070,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4419,6 +5098,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4455,40 +5156,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4496,6 +5182,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4508,14 +5262,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4550,7 +5304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4582,27 +5336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4634,24 +5370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4827,14 +5545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C30"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -4845,33 +5563,33 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4882,11 +5600,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
@@ -4896,12 +5614,12 @@
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -4911,11 +5629,11 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -4925,9 +5643,9 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -4941,12 +5659,12 @@
         <v>11</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -4957,12 +5675,12 @@
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4973,15 +5691,15 @@
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -4992,10 +5710,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
@@ -5006,40 +5724,40 @@
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="8"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5065,20 +5783,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
@@ -5086,12 +5804,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -5099,17 +5817,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0.21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="20" t="s">
         <v>65</v>
       </c>
@@ -5117,18 +5835,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -5136,7 +5854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -5144,7 +5862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -5152,22 +5870,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="B14" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -5175,7 +5893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="20" t="s">
         <v>76</v>
       </c>
@@ -5183,30 +5901,30 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="B20" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="B22" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="B23" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="B24" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -5214,691 +5932,803 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="B26" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="B27" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="B28" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="B29" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="B30" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="B31" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2">
       <c r="B38" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="B49" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="B50" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="B51" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="B52" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="B53" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="B54" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="B57" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="40" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
+    <row r="59" spans="1:2">
+      <c r="A59" s="40"/>
       <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
+    <row r="60" spans="1:2">
+      <c r="A60" s="40"/>
       <c r="B60" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
+    <row r="61" spans="1:2">
+      <c r="A61" s="40"/>
       <c r="B61" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
+    <row r="62" spans="1:2">
+      <c r="A62" s="40"/>
       <c r="B62" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="B63" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="B64" s="19"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2">
       <c r="B74" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2">
       <c r="B75" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2">
       <c r="B76" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2">
       <c r="B77" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2">
       <c r="B78" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2">
       <c r="B79" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2">
       <c r="B80" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="B81" s="19"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="B82" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="B83" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="B84" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="B85" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="B86" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="B87" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="B88" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="B89" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="B90" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="B91" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="B92" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="B93" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="34" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="34" t="s">
+    <row r="97" spans="1:2">
+      <c r="B97" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="37" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="35"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="34" t="s">
+      <c r="B98" s="22"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="41"/>
+      <c r="B99" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-      <c r="B100" s="36" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="41"/>
+      <c r="B100" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="36" t="s">
+    <row r="101" spans="1:2">
+      <c r="B101" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="36" t="s">
+    <row r="102" spans="1:2">
+      <c r="B102" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="36" t="s">
+    <row r="103" spans="1:2">
+      <c r="B103" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="36" t="s">
+    <row r="104" spans="1:2">
+      <c r="B104" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="36" t="s">
+    <row r="105" spans="1:2">
+      <c r="B105" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="36" t="s">
+    <row r="106" spans="1:2">
+      <c r="B106" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="36" t="s">
+    <row r="107" spans="1:2">
+      <c r="B107" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="36" t="s">
+    <row r="108" spans="1:2">
+      <c r="B108" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="36" t="s">
+    <row r="109" spans="1:2">
+      <c r="B109" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="36" t="s">
+    <row r="110" spans="1:2">
+      <c r="B110" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="35"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="34" t="s">
+    <row r="111" spans="1:2">
+      <c r="B111" s="22"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="36" t="s">
+    <row r="113" spans="1:2">
+      <c r="B113" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="36" t="s">
+    <row r="114" spans="1:2">
+      <c r="B114" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="36" t="s">
+    <row r="115" spans="1:2">
+      <c r="B115" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="36" t="s">
+    <row r="116" spans="1:2">
+      <c r="B116" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="36" t="s">
+    <row r="117" spans="1:2">
+      <c r="B117" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="36" t="s">
+    <row r="118" spans="1:2">
+      <c r="B118" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="36" t="s">
+    <row r="119" spans="1:2">
+      <c r="B119" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="36" t="s">
+    <row r="120" spans="1:2">
+      <c r="B120" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="36" t="s">
+    <row r="121" spans="1:2">
+      <c r="B121" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="35"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="36" t="s">
+    <row r="122" spans="1:2">
+      <c r="B122" s="22"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="38" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="42" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="41" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="41"/>
-      <c r="B128" s="35"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="41"/>
-      <c r="B129" s="36" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="42"/>
+      <c r="B128" s="22"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="42"/>
+      <c r="B129" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="41"/>
-      <c r="B130" s="36" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="42"/>
+      <c r="B130" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="36" t="s">
+    <row r="131" spans="1:2">
+      <c r="B131" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="36" t="s">
+    <row r="132" spans="1:2">
+      <c r="B132" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="36" t="s">
+    <row r="133" spans="1:2">
+      <c r="B133" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="36" t="s">
+    <row r="134" spans="1:2">
+      <c r="B134" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="36" t="s">
+    <row r="135" spans="1:2">
+      <c r="B135" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="36" t="s">
+    <row r="136" spans="1:2">
+      <c r="B136" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="36" t="s">
+    <row r="137" spans="1:2">
+      <c r="B137" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="36" t="s">
+    <row r="138" spans="1:2">
+      <c r="B138" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="36" t="s">
+    <row r="139" spans="1:2">
+      <c r="B139" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="39" t="s">
+    <row r="140" spans="1:2">
+      <c r="B140" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="39" t="s">
+    <row r="141" spans="1:2">
+      <c r="B141" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="40" t="s">
+    <row r="142" spans="1:2">
+      <c r="B142" s="26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="43" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="34" t="s">
+    <row r="144" spans="1:2">
+      <c r="B144" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="44" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="44"/>
-      <c r="B146" s="35"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="44"/>
-      <c r="B147" s="36" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="43"/>
+      <c r="B146" s="22"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="43"/>
+      <c r="B147" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="44"/>
-      <c r="B148" s="36" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="43"/>
+      <c r="B148" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="44"/>
-      <c r="B149" s="36" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="43"/>
+      <c r="B149" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="44"/>
-      <c r="B150" s="36" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="43"/>
+      <c r="B150" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="44"/>
-      <c r="B151" s="36" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="43"/>
+      <c r="B151" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="44"/>
-      <c r="B152" s="36" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="43"/>
+      <c r="B152" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="44"/>
-      <c r="B153" s="36" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="43"/>
+      <c r="B153" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="44"/>
-      <c r="B154" s="36" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="43"/>
+      <c r="B154" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="44"/>
-      <c r="B155" s="36" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" s="43"/>
+      <c r="B155" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="36" t="s">
+    <row r="156" spans="1:2">
+      <c r="B156" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="36" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="36" t="s">
+    <row r="158" spans="1:2">
+      <c r="B158" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="36" t="s">
+    <row r="159" spans="1:2">
+      <c r="B159" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="36" t="s">
+    <row r="160" spans="1:2">
+      <c r="B160" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="35"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="40" t="s">
+    <row r="161" spans="1:3">
+      <c r="B161" s="22"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="B162" s="26" t="s">
         <v>161</v>
       </c>
     </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="B165" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="43"/>
+      <c r="C167" s="19"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="43"/>
+      <c r="C168" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="43"/>
+      <c r="C169" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="C170" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" customHeight="1">
+      <c r="B171" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172" s="42"/>
+      <c r="C172" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="B173" s="42"/>
+      <c r="C173" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="B174" s="42"/>
+      <c r="C174" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="B175" s="42"/>
+      <c r="C175" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="C176" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="C177" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="C178" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="C179" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="C180" s="19"/>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="C181" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B171:B175"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A98:A100"/>
     <mergeCell ref="A127:A130"/>
     <mergeCell ref="A145:A155"/>
+    <mergeCell ref="A166:A169"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A58" r:id="rId1" display="http://redux.js.org/index.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A58" r:id="rId1" display="http://redux.js.org/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5906,21 +6736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -5933,26 +6763,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="65.125" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5960,22 +6790,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -5983,7 +6813,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -5996,14 +6826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="66.5" customWidth="1"/>
@@ -6011,14 +6841,14 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -6026,7 +6856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="17">
         <f ca="1">TODAY()</f>
         <v>43245</v>
@@ -6035,24 +6865,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="17">
         <v>43244</v>
       </c>
@@ -6066,7 +6896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -6079,4 +6909,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="H4" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+      <c r="B9" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18">
+      <c r="B25" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/必要备忘.xlsx
+++ b/必要备忘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="智能学堂接口" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="打包编译" sheetId="4" r:id="rId4"/>
     <sheet name="智能学堂问题" sheetId="5" r:id="rId5"/>
     <sheet name="支付模块" sheetId="6" r:id="rId6"/>
-    <sheet name="园所版app" sheetId="7" r:id="rId7"/>
+    <sheet name=" 支付模块2" sheetId="8" r:id="rId7"/>
+    <sheet name="园所版app" sheetId="7" r:id="rId8"/>
+    <sheet name="家长版APP" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="241">
   <si>
     <t>第一个接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4838,13 +4840,448 @@
       </rPr>
       <t>方向。</t>
     </r>
+  </si>
+  <si>
+    <t>二维码生成管理：后端独立生成管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责：所谓独立就是可不必在用户端生成，只用于业务员在外收费使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码包含信息：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用收费模式代码表示：1001(提费)1007（共享）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1涉及金额考虑加密的可能，如果价格改变，只需要在后台生成相对应金额的二维码，给到业务员使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2包含金额，针对的是客户端不可更改金额数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3如果有优惠活动？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠值：1-100，指的是折率；95，就是9.5折；没有优惠活动就是100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能用到：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描下单接口</t>
+  </si>
+  <si>
+    <r>
+      <t>PAYSAOORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"api/shop_code_makeorder.do"</t>
+    </r>
+  </si>
+  <si>
+    <t>SaoApplicationActivity</t>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端扫描 二维码 支付订单生成接口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>本接口用于客户端扫描提前生成的购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的二维码支付，服务器端生成订单信息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">bindEquepment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BindEquepment(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,rawResult.toString());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   postData(rawResult);</t>
+  </si>
+  <si>
+    <t>扫码类型区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaptureActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有绑定设备时，主页表现上不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnbindEquepmentPager</t>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000：指扫码支付类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"function": "1000","chargingType": "1001","price": "100","remark": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器人二维码支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4955,8 +5392,70 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5035,6 +5534,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5070,7 +5575,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5120,6 +5625,26 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5153,14 +5678,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5168,13 +5693,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5564,32 +6094,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5601,10 +6131,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
@@ -5614,10 +6144,10 @@
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -5629,7 +6159,7 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="55" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5643,7 +6173,7 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
@@ -5659,10 +6189,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
@@ -5675,10 +6205,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
@@ -5691,10 +6221,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="9" t="s">
         <v>30</v>
       </c>
@@ -5710,8 +6240,8 @@
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
@@ -5724,19 +6254,19 @@
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="8"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
@@ -5754,10 +6284,10 @@
       <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6079,7 +6609,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="57" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -6087,23 +6617,23 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="40"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="40"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="40"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="40"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="12" t="s">
         <v>100</v>
       </c>
@@ -6273,19 +6803,19 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="58" t="s">
         <v>138</v>
       </c>
       <c r="B98" s="22"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="41"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="41"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="23" t="s">
         <v>70</v>
       </c>
@@ -6415,7 +6945,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="42" t="s">
+      <c r="A127" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B127" s="21" t="s">
@@ -6423,17 +6953,17 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="42"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="22"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="42"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="42"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="23" t="s">
         <v>70</v>
       </c>
@@ -6509,7 +7039,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="43" t="s">
+      <c r="A145" s="59" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="21" t="s">
@@ -6517,59 +7047,59 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="43"/>
+      <c r="A146" s="59"/>
       <c r="B146" s="22"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="43"/>
+      <c r="A147" s="59"/>
       <c r="B147" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="43"/>
+      <c r="A148" s="59"/>
       <c r="B148" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="43"/>
+      <c r="A149" s="59"/>
       <c r="B149" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="43"/>
+      <c r="A150" s="59"/>
       <c r="B150" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="43"/>
+      <c r="A151" s="59"/>
       <c r="B151" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="43"/>
+      <c r="A152" s="59"/>
       <c r="B152" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="43"/>
+      <c r="A153" s="59"/>
       <c r="B153" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="43"/>
+      <c r="A154" s="59"/>
       <c r="B154" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="43"/>
+      <c r="A155" s="59"/>
       <c r="B155" s="23" t="s">
         <v>159</v>
       </c>
@@ -6611,12 +7141,12 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="45" t="s">
+      <c r="A164" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="30" t="s">
         <v>191</v>
       </c>
       <c r="C165" s="18" t="s">
@@ -6624,7 +7154,7 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="43" t="s">
+      <c r="A166" s="59" t="s">
         <v>190</v>
       </c>
       <c r="C166" s="18" t="s">
@@ -6632,17 +7162,17 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="43"/>
+      <c r="A167" s="59"/>
       <c r="C167" s="19"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="43"/>
+      <c r="A168" s="59"/>
       <c r="C168" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="43"/>
+      <c r="A169" s="59"/>
       <c r="C169" s="12" t="s">
         <v>70</v>
       </c>
@@ -6653,7 +7183,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1">
-      <c r="B171" s="42" t="s">
+      <c r="B171" s="56" t="s">
         <v>199</v>
       </c>
       <c r="C171" s="12" t="s">
@@ -6661,25 +7191,25 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="B172" s="42"/>
+      <c r="B172" s="56"/>
       <c r="C172" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="B173" s="42"/>
+      <c r="B173" s="56"/>
       <c r="C173" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="B174" s="42"/>
+      <c r="B174" s="56"/>
       <c r="C174" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="B175" s="42"/>
+      <c r="B175" s="56"/>
       <c r="C175" s="12" t="s">
         <v>196</v>
       </c>
@@ -6708,12 +7238,12 @@
       <c r="C180" s="19"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="C181" s="51" t="s">
+      <c r="C181" s="35" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="30" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6842,11 +7372,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -6859,7 +7389,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="17">
         <f ca="1">TODAY()</f>
-        <v>43245</v>
+        <v>43248</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>57</v>
@@ -6913,10 +7443,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6952,84 +7482,84 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="B17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:10">
       <c r="B24" t="s">
         <v>175</v>
       </c>
@@ -7037,15 +7567,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
-      <c r="B25" s="50" t="s">
+    <row r="25" spans="1:10" ht="18">
+      <c r="B25" s="34" t="s">
         <v>178</v>
       </c>
       <c r="D25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>185</v>
       </c>
@@ -7053,7 +7583,101 @@
         <v>186</v>
       </c>
     </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" ht="18">
+      <c r="C29" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1">
+      <c r="C30" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1">
+      <c r="C31" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18">
+      <c r="A36" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="B37" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18">
+      <c r="B38" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18">
+      <c r="B39" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18">
+      <c r="B40" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18">
+      <c r="B41" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:J31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7061,6 +7685,168 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -7095,4 +7881,31 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="B2" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/必要备忘.xlsx
+++ b/必要备忘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="智能学堂接口" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,17 @@
     <sheet name="智能学堂问题" sheetId="5" r:id="rId5"/>
     <sheet name="支付模块" sheetId="6" r:id="rId6"/>
     <sheet name=" 支付模块2" sheetId="8" r:id="rId7"/>
-    <sheet name="园所版app" sheetId="7" r:id="rId8"/>
-    <sheet name="家长版APP" sheetId="9" r:id="rId9"/>
+    <sheet name="支付模块接口" sheetId="11" r:id="rId8"/>
+    <sheet name="园所版app" sheetId="7" r:id="rId9"/>
+    <sheet name="家长版APP" sheetId="9" r:id="rId10"/>
+    <sheet name="网络框架" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
   <si>
     <t>第一个接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4871,10 +4873,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用收费模式代码表示：1001(提费)1007（共享）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5276,12 +5274,653 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindergarten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_comefrom</t>
+  </si>
+  <si>
+    <t>订单来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单来源（1：手机支付、2：线下二维码支付、3：机器支付）</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1：Android；2：iOS；3：机器；4：网页）</t>
+  </si>
+  <si>
+    <t>parentid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比较原有购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口相比较：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PAYORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"api/shop_app_makeorder.do"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>下单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appid</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据返回：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含金额、订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付结果回调：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功，请求后台服务推送app安装信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原加密后的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：价格加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一分钱加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"function": "1000","codenum": "123124112","chargingType": "1001","price": "fNboDSunRnOfmNGdtYz0NpJ4vVH1pG8NZ23pgVTRqcy11JMsXQ/mHEqziLh+16AW0WMVVSZZ+vfRweAzt80I0vilazBtb6pQRmAbPsqtqVoks97z/ow1MVURtjnmzRKPNdJ3fd9JMV6Uj+DLeW/+WHkD0TgABvqphqggkYVWB1Q=","remark": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器人二维码支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>用收费模式代码表示：1001(全额)1007（租赁）1009（优惠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码支付下单接口参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指的是自定义的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String phoneNum = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.getString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>登录之后会保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.edit().putString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, phoneNum).commit();</t>
+    </r>
+  </si>
+  <si>
+    <t>xutils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>okhttp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该都有开辟了子线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从源码中看出：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OkHttpClient</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ConnectionPool </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>connectionPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">connectionPool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ConnectionPool();</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a new connection pool with tuning parameters appropriate for a single-user application.</t>
+  </si>
+  <si>
+    <t>The tuning parameters in this pool are subject to change in future OkHttp releases. Currently</t>
+  </si>
+  <si>
+    <t>this pool holds up to 5 idle connections which will be evicted after 5 minutes of inactivity.</t>
+  </si>
+  <si>
+    <t>建立了线程池，因此不用在调用时再开辟子线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理可证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskController</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>autoPost(Runnable var1);</t>
+    </r>
+  </si>
+  <si>
+    <t>TaskControllerImpl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;T&gt; T startSync(AbsTask&lt;T&gt; task) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">throws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Throwable </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Create a new runable.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注释很少</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实证明：确实都在代码内开辟了子线程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.190:8080/xjkb/buying/generation.do</t>
+  </si>
+  <si>
+    <t>参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5454,8 +6093,41 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.5"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.5"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5536,7 +6208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5575,7 +6253,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5636,7 +6314,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5644,7 +6321,26 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5704,6 +6400,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6079,7 +6796,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6094,32 +6811,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6131,10 +6848,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
@@ -6144,10 +6861,10 @@
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -6159,7 +6876,7 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="71" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6173,7 +6890,7 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
@@ -6189,10 +6906,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
@@ -6205,10 +6922,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
@@ -6221,10 +6938,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="9" t="s">
         <v>30</v>
       </c>
@@ -6240,8 +6957,8 @@
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
@@ -6254,19 +6971,19 @@
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="8"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
@@ -6284,10 +7001,10 @@
       <c r="B16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6305,6 +7022,253 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="B2" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="85"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+    </row>
+    <row r="5" spans="1:14" ht="18">
+      <c r="C5" s="5"/>
+      <c r="D5" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="18">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="18">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="18">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18">
+      <c r="C10" s="5"/>
+      <c r="D10" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.75">
+      <c r="C14" s="5"/>
+      <c r="D14" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="18">
+      <c r="C16" s="5"/>
+      <c r="D16" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="3:13" ht="18">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="5"/>
+      <c r="D18" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6609,7 +7573,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="73" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -6617,23 +7581,23 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="57"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="57"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="12" t="s">
         <v>100</v>
       </c>
@@ -6803,19 +7767,19 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="58" t="s">
+      <c r="A98" s="74" t="s">
         <v>138</v>
       </c>
       <c r="B98" s="22"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="58"/>
+      <c r="A99" s="74"/>
       <c r="B99" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="58"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="23" t="s">
         <v>70</v>
       </c>
@@ -6945,7 +7909,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="56" t="s">
+      <c r="A127" s="72" t="s">
         <v>149</v>
       </c>
       <c r="B127" s="21" t="s">
@@ -6953,17 +7917,17 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="56"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="22"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="56"/>
+      <c r="A129" s="72"/>
       <c r="B129" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="56"/>
+      <c r="A130" s="72"/>
       <c r="B130" s="23" t="s">
         <v>70</v>
       </c>
@@ -7039,7 +8003,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="59" t="s">
+      <c r="A145" s="75" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="21" t="s">
@@ -7047,59 +8011,59 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="59"/>
+      <c r="A146" s="75"/>
       <c r="B146" s="22"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="59"/>
+      <c r="A147" s="75"/>
       <c r="B147" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="59"/>
+      <c r="A148" s="75"/>
       <c r="B148" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="59"/>
+      <c r="A149" s="75"/>
       <c r="B149" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="59"/>
+      <c r="A150" s="75"/>
       <c r="B150" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="59"/>
+      <c r="A151" s="75"/>
       <c r="B151" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="59"/>
+      <c r="A152" s="75"/>
       <c r="B152" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="59"/>
+      <c r="A153" s="75"/>
       <c r="B153" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="59"/>
+      <c r="A154" s="75"/>
       <c r="B154" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="59"/>
+      <c r="A155" s="75"/>
       <c r="B155" s="23" t="s">
         <v>159</v>
       </c>
@@ -7154,7 +8118,7 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="59" t="s">
+      <c r="A166" s="75" t="s">
         <v>190</v>
       </c>
       <c r="C166" s="18" t="s">
@@ -7162,17 +8126,17 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="59"/>
+      <c r="A167" s="75"/>
       <c r="C167" s="19"/>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="59"/>
+      <c r="A168" s="75"/>
       <c r="C168" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="59"/>
+      <c r="A169" s="75"/>
       <c r="C169" s="12" t="s">
         <v>70</v>
       </c>
@@ -7183,7 +8147,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1">
-      <c r="B171" s="56" t="s">
+      <c r="B171" s="72" t="s">
         <v>199</v>
       </c>
       <c r="C171" s="12" t="s">
@@ -7191,25 +8155,25 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="B172" s="56"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="B173" s="56"/>
+      <c r="B173" s="72"/>
       <c r="C173" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="B174" s="56"/>
+      <c r="B174" s="72"/>
       <c r="C174" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="B175" s="56"/>
+      <c r="B175" s="72"/>
       <c r="C175" s="12" t="s">
         <v>196</v>
       </c>
@@ -7372,11 +8336,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -7389,7 +8353,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="17">
         <f ca="1">TODAY()</f>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>57</v>
@@ -7443,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7586,91 +8550,124 @@
     <row r="28" spans="1:10">
       <c r="A28" s="30"/>
       <c r="B28" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" ht="18">
+      <c r="C29" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:10" ht="18">
-      <c r="C29" s="39" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1">
+      <c r="C30" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1">
+      <c r="C31" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="1:13" ht="18">
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1">
-      <c r="C30" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1">
-      <c r="C31" s="62" t="s">
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18">
+      <c r="A36" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18">
+      <c r="B37" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:6" ht="18">
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18">
-      <c r="A36" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18">
-      <c r="B37" s="42" t="s">
+    </row>
+    <row r="38" spans="1:13" ht="18">
+      <c r="B38" s="39" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18">
-      <c r="B38" s="40" t="s">
+    <row r="39" spans="1:13" ht="18">
+      <c r="B39" s="39" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18">
-      <c r="B39" s="40" t="s">
+    <row r="40" spans="1:13" ht="18">
+      <c r="B40" s="39" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18">
-      <c r="B40" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18">
-      <c r="B41" s="40" t="s">
+    <row r="41" spans="1:13" ht="18">
+      <c r="B41" s="39" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="18">
+      <c r="B47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18">
+      <c r="F48" s="50" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -7686,49 +8683,50 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A1" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A2" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>202</v>
       </c>
@@ -7736,12 +8734,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="B6" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>207</v>
       </c>
@@ -7751,94 +8749,466 @@
       <c r="D7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>207</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="1" t="s">
+    <row r="10" spans="1:11">
+      <c r="E10" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="E10" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    <row r="11" spans="1:11">
+      <c r="E11" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>207</v>
       </c>
       <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="44" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B34" s="64"/>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="B35" s="43" t="s">
         <v>240</v>
       </c>
+      <c r="C35" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="44"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="C46" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" t="s">
+        <v>255</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="C49" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18">
+      <c r="A53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="H53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1"/>
+      <c r="B57" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7847,6 +9217,137 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="B5" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="36"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -7881,31 +9382,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="B2" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>